--- a/files/descarga_xlsx_hon.xlsx
+++ b/files/descarga_xlsx_hon.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravje\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2052e6604c4b79/mySiss_Cloud/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811608B0-6817-4E5D-95E9-A15B19B7DED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{811608B0-6817-4E5D-95E9-A15B19B7DED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{361A705B-2B34-4831-B396-7FB73B9D7873}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{5C4ED215-7969-4E5E-A1E6-66787DB5D2A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{5C4ED215-7969-4E5E-A1E6-66787DB5D2A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Detalle1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Reporte" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Detalle1!$A$8</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="56">
   <si>
     <t>Estado_Preliq</t>
   </si>
@@ -169,6 +171,45 @@
   </si>
   <si>
     <t>Detalles Servicios  - Profesional: Arango Juan Servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalles Servicios  </t>
+  </si>
+  <si>
+    <t>Ramirez Julian</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LABERINTECTOMIA O VESTIBULOTOMIA</t>
+  </si>
+  <si>
+    <t>BIOPSIA NASAL VIA TRANSNASAL</t>
+  </si>
+  <si>
+    <t>CONSULTA CONTROL</t>
+  </si>
+  <si>
+    <t>DERIVACIÓN VENTRICULAR</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>ID Medico</t>
+  </si>
+  <si>
+    <t>Julian Ramirez</t>
   </si>
 </sst>
 </file>
@@ -177,10 +218,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +244,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +284,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6CCF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -226,20 +311,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="19" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="19" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -311,15 +546,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="24" formatCode="h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="166" formatCode="h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -329,6 +556,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -422,31 +657,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC2A1993-29D2-46A5-B4F9-D53B68D76999}" name="Tabla5" displayName="Tabla5" ref="A3:S19" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC2A1993-29D2-46A5-B4F9-D53B68D76999}" name="Tabla5" displayName="Tabla5" ref="A3:S19" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="A3:S19" xr:uid="{CC3C01AF-2036-4464-9563-F7ED617D2075}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:S19">
     <sortCondition ref="S3:S19"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{123C0C0E-BB95-4E24-8027-58DB2A7EEA40}" name="Estado_Preliq" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E46A2013-E7E4-4334-A855-626BA73F789A}" name="Estado_orden" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{45F446EF-99B5-4B72-BB94-F29AFFA2C59A}" name="Orden" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{A2511BCC-3CA6-4CA9-A128-75D544EAC42B}" name="Liquidación " dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{2DD73D7C-483E-4208-B4A8-A5F58D15A2A9}" name="Profesional" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{7F901FA1-9CB6-4823-A192-E14C43AA65A2}" name="Caso" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{9168686F-6222-485A-AFF6-5F92167C9042}" name="Aseguradora" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{9947CEED-81D2-42B9-A3EB-CA479838E10F}" name="Tipo de contrato" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{881AC7A0-DDA2-4D67-BE1C-E93916DD02B8}" name="Grupo Profesional" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{511D44D6-3CE1-4474-8A8A-59CA79C0E96C}" name="Fecha" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{C2D4D8BA-25B0-4B78-AEA0-E28B15FBD6C0}" name="Hora" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{169B68AB-7683-49DD-A8AB-1A772349ACA6}" name="Cód. Servicio" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{F44D4171-E7CD-449C-9D27-B4252B56DC1A}" name="Desc. Servicio" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{805CAA83-90E3-4398-A944-4553EC69A2D0}" name="Especialidad" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D66C547B-1113-4D12-AE1B-A8FA1D84F013}" name="Vr. Unitario" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{386EDB0B-48F4-4A91-A2C2-3E7AEA1CE73E}" name="IVA" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{8237D163-DE99-4CB8-B9B0-0F1379FAA741}" name="Retenciones" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{F7F71D64-4D1E-4894-8D21-BF193385C833}" name="Descuentos" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{8927AC46-7E3D-43BD-898D-FCBDEC78332C}" name="Valor Total" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{123C0C0E-BB95-4E24-8027-58DB2A7EEA40}" name="Estado_Preliq" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{E46A2013-E7E4-4334-A855-626BA73F789A}" name="Estado_orden" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{45F446EF-99B5-4B72-BB94-F29AFFA2C59A}" name="Orden" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{A2511BCC-3CA6-4CA9-A128-75D544EAC42B}" name="Liquidación " dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{2DD73D7C-483E-4208-B4A8-A5F58D15A2A9}" name="Profesional" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{7F901FA1-9CB6-4823-A192-E14C43AA65A2}" name="Caso" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{9168686F-6222-485A-AFF6-5F92167C9042}" name="Aseguradora" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{9947CEED-81D2-42B9-A3EB-CA479838E10F}" name="Tipo de contrato" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{881AC7A0-DDA2-4D67-BE1C-E93916DD02B8}" name="Grupo Profesional" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{511D44D6-3CE1-4474-8A8A-59CA79C0E96C}" name="Fecha" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{C2D4D8BA-25B0-4B78-AEA0-E28B15FBD6C0}" name="Hora" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{169B68AB-7683-49DD-A8AB-1A772349ACA6}" name="Cód. Servicio" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{F44D4171-E7CD-449C-9D27-B4252B56DC1A}" name="Desc. Servicio" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{805CAA83-90E3-4398-A944-4553EC69A2D0}" name="Especialidad" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{D66C547B-1113-4D12-AE1B-A8FA1D84F013}" name="Vr. Unitario" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{386EDB0B-48F4-4A91-A2C2-3E7AEA1CE73E}" name="IVA" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{8237D163-DE99-4CB8-B9B0-0F1379FAA741}" name="Retenciones" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{F7F71D64-4D1E-4894-8D21-BF193385C833}" name="Descuentos" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{8927AC46-7E3D-43BD-898D-FCBDEC78332C}" name="Valor Total" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1817,15 +2052,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34EBD7C-A5B9-441B-875F-119525700C35}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -2069,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2423,7 +2658,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2482,7 +2717,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2541,7 +2776,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -2550,7 +2785,7 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F15">
         <v>50003</v>
@@ -2659,7 +2894,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -2668,7 +2903,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>50004</v>
@@ -2838,4 +3073,356 @@
     <ignoredError sqref="C4:C19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF6403B-FE5F-4351-9E95-4CBC4D81D6C2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23">
+        <v>45658</v>
+      </c>
+      <c r="D1" s="23">
+        <v>45687</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31">
+        <v>1102323455</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28">
+        <v>100001</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>49857</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8">
+        <v>207502</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="36">
+        <v>250000</v>
+      </c>
+      <c r="F7" s="36">
+        <v>39915</v>
+      </c>
+      <c r="G7" s="36">
+        <v>8750</v>
+      </c>
+      <c r="H7" s="36">
+        <v>25000</v>
+      </c>
+      <c r="I7" s="36">
+        <v>256165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>49858</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8">
+        <v>212001</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="36">
+        <v>50000</v>
+      </c>
+      <c r="F8" s="36">
+        <v>7983</v>
+      </c>
+      <c r="G8" s="36">
+        <v>1750</v>
+      </c>
+      <c r="H8" s="36">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="36">
+        <v>51233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>49913</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8">
+        <v>890101</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="36">
+        <v>25000</v>
+      </c>
+      <c r="F9" s="36">
+        <v>3991</v>
+      </c>
+      <c r="G9" s="36">
+        <v>875</v>
+      </c>
+      <c r="H9" s="36">
+        <v>2500</v>
+      </c>
+      <c r="I9" s="36">
+        <v>25616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>49914</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8">
+        <v>890102</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F10" s="36">
+        <v>2394</v>
+      </c>
+      <c r="G10" s="36">
+        <v>525</v>
+      </c>
+      <c r="H10" s="36">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="36">
+        <v>15369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>49915</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8">
+        <v>23401</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="36">
+        <v>500000</v>
+      </c>
+      <c r="F11" s="36">
+        <v>79831</v>
+      </c>
+      <c r="G11" s="36">
+        <v>17500</v>
+      </c>
+      <c r="H11" s="36">
+        <v>50000</v>
+      </c>
+      <c r="I11" s="36">
+        <v>512331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="37">
+        <v>840000</v>
+      </c>
+      <c r="F12" s="37">
+        <v>134114</v>
+      </c>
+      <c r="G12" s="37">
+        <v>29400</v>
+      </c>
+      <c r="H12" s="37">
+        <v>84000</v>
+      </c>
+      <c r="I12" s="37">
+        <v>860714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7:B11" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E09EE16-BB5C-4FEA-8F32-D6A23945CBF3}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14">
+        <v>45658</v>
+      </c>
+      <c r="D1" s="14">
+        <v>45687</v>
+      </c>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="17">
+        <v>3235353535</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20">
+        <v>100001</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>